--- a/database/industries/siman/silam/eps.xlsx
+++ b/database/industries/siman/silam/eps.xlsx
@@ -513,7 +513,7 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>-471</v>
+        <v>471</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>-377</v>
+        <v>377</v>
       </c>
       <c r="D6">
         <v>0</v>
